--- a/data/futuresL_History.xlsx
+++ b/data/futuresL_History.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TSDP\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ML-TSDP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="futuresResultsHistory" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -609,6 +609,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>L%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -752,10 +788,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>futuresResultsHistory!$A$2:$A$11</c:f>
+              <c:f>futuresResultsHistory!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="m/d/yyyy">
                   <c:v>42569</c:v>
                 </c:pt>
@@ -785,16 +821,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>futuresResultsHistory!$B$2:$B$11</c:f>
+              <c:f>futuresResultsHistory!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.555555555556</c:v>
                 </c:pt>
@@ -824,6 +863,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.88888888888899997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22222222222222199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -926,10 +968,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>futuresResultsHistory!$A$2:$A$11</c:f>
+              <c:f>futuresResultsHistory!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="m/d/yyyy">
                   <c:v>42569</c:v>
                 </c:pt>
@@ -959,16 +1001,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>futuresResultsHistory!$C$2:$C$11</c:f>
+              <c:f>futuresResultsHistory!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.14285714285699999</c:v>
                 </c:pt>
@@ -998,6 +1043,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.71428571428599996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1100,10 +1148,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>futuresResultsHistory!$A$2:$A$11</c:f>
+              <c:f>futuresResultsHistory!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="m/d/yyyy">
                   <c:v>42569</c:v>
                 </c:pt>
@@ -1133,16 +1181,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>futuresResultsHistory!$D$2:$D$11</c:f>
+              <c:f>futuresResultsHistory!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1172,6 +1223,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1274,10 +1328,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>futuresResultsHistory!$A$2:$A$11</c:f>
+              <c:f>futuresResultsHistory!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="m/d/yyyy">
                   <c:v>42569</c:v>
                 </c:pt>
@@ -1307,16 +1361,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>futuresResultsHistory!$E$2:$E$11</c:f>
+              <c:f>futuresResultsHistory!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.76190476190500001</c:v>
                 </c:pt>
@@ -1346,6 +1403,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.57142857142900005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52380952380952295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1448,10 +1508,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>futuresResultsHistory!$A$2:$A$11</c:f>
+              <c:f>futuresResultsHistory!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="m/d/yyyy">
                   <c:v>42569</c:v>
                 </c:pt>
@@ -1481,16 +1541,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>futuresResultsHistory!$F$2:$F$11</c:f>
+              <c:f>futuresResultsHistory!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.66666666666700003</c:v>
                 </c:pt>
@@ -1520,6 +1583,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1622,10 +1688,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>futuresResultsHistory!$A$2:$A$11</c:f>
+              <c:f>futuresResultsHistory!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="m/d/yyyy">
                   <c:v>42569</c:v>
                 </c:pt>
@@ -1655,16 +1721,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>futuresResultsHistory!$G$2:$G$11</c:f>
+              <c:f>futuresResultsHistory!$G$2:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -1694,6 +1763,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1799,10 +1871,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>futuresResultsHistory!$A$2:$A$11</c:f>
+              <c:f>futuresResultsHistory!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="m/d/yyyy">
                   <c:v>42569</c:v>
                 </c:pt>
@@ -1832,16 +1904,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>futuresResultsHistory!$H$2:$H$11</c:f>
+              <c:f>futuresResultsHistory!$H$2:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.24050632911399999</c:v>
                 </c:pt>
@@ -1871,6 +1946,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.37974683544299997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.367088607595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1976,10 +2054,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>futuresResultsHistory!$A$2:$A$11</c:f>
+              <c:f>futuresResultsHistory!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="m/d/yyyy">
                   <c:v>42569</c:v>
                 </c:pt>
@@ -2009,16 +2087,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>futuresResultsHistory!$I$2:$I$11</c:f>
+              <c:f>futuresResultsHistory!$I$2:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.75</c:v>
                 </c:pt>
@@ -2048,6 +2129,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2153,10 +2237,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>futuresResultsHistory!$A$2:$A$11</c:f>
+              <c:f>futuresResultsHistory!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="m/d/yyyy">
                   <c:v>42569</c:v>
                 </c:pt>
@@ -2186,16 +2270,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>futuresResultsHistory!$J$2:$J$11</c:f>
+              <c:f>futuresResultsHistory!$J$2:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.625</c:v>
                 </c:pt>
@@ -2225,6 +2312,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2242,11 +2332,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1807784176"/>
-        <c:axId val="1807787440"/>
+        <c:axId val="-90274480"/>
+        <c:axId val="-90281552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1807784176"/>
+        <c:axId val="-90274480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2289,14 +2379,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1807787440"/>
+        <c:crossAx val="-90281552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1807787440"/>
+        <c:axId val="-90281552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2306,7 +2396,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1807784176"/>
+        <c:crossAx val="-90274480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2941,16 +3031,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3235,10 +3325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="A1:J11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3596,6 +3686,38 @@
         <v>0.625</v>
       </c>
     </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>42583</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.367088607595</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
